--- a/Assets/06.Table/PassiveSkill2.xlsx
+++ b/Assets/06.Table/PassiveSkill2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D3E7B8-74CC-46E5-9D35-65600862E4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD1D7AD-6664-47F1-B7CF-7D6396689FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,13 @@
   </si>
   <si>
     <t>심연 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive6</t>
+  </si>
+  <si>
+    <t>신선 훈련</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -592,7 +599,7 @@
         <v>6</v>
       </c>
       <c r="J3">
-        <f>F2</f>
+        <f t="shared" ref="J3:J8" si="0">F2</f>
         <v>100</v>
       </c>
     </row>
@@ -625,7 +632,7 @@
         <v>8</v>
       </c>
       <c r="J4">
-        <f>F3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -658,7 +665,7 @@
         <v>7</v>
       </c>
       <c r="J5">
-        <f>F4</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -691,7 +698,7 @@
         <v>19</v>
       </c>
       <c r="J6">
-        <f>F5</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -712,7 +719,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
       <c r="F7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
@@ -724,7 +731,40 @@
         <v>22</v>
       </c>
       <c r="J7">
-        <f>F6</f>
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>74</v>
+      </c>
+      <c r="E8">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>

--- a/Assets/06.Table/PassiveSkill2.xlsx
+++ b/Assets/06.Table/PassiveSkill2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD1D7AD-6664-47F1-B7CF-7D6396689FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1026B303-F687-4D3B-8291-F3562598C96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>신선 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상 훈련</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -752,7 +764,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="F8">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
@@ -765,6 +777,39 @@
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9" si="1">F8</f>
         <v>100</v>
       </c>
     </row>

--- a/Assets/06.Table/PassiveSkill2.xlsx
+++ b/Assets/06.Table/PassiveSkill2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1026B303-F687-4D3B-8291-F3562598C96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C213487-9F47-4FEA-A7AC-9C5BE67E6ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,15 @@
   <si>
     <t>현상 훈련</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive8</t>
+  </si>
+  <si>
+    <t>용베기 훈련</t>
+  </si>
+  <si>
+    <t>passive7</t>
   </si>
 </sst>
 </file>
@@ -508,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -797,7 +806,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
         <v>28</v>
@@ -810,6 +819,38 @@
       </c>
       <c r="J9">
         <f t="shared" ref="J9" si="1">F8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F10">
+        <v>200</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10">
         <v>100</v>
       </c>
     </row>

--- a/Assets/06.Table/PassiveSkill2.xlsx
+++ b/Assets/06.Table/PassiveSkill2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C213487-9F47-4FEA-A7AC-9C5BE67E6ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659ADFD3-EC8E-4C15-B175-D1BFBE17B175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,13 @@
   </si>
   <si>
     <t>passive7</t>
+  </si>
+  <si>
+    <t>passive9</t>
+  </si>
+  <si>
+    <t>용궁 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -517,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -839,7 +846,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F10">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>30</v>
@@ -851,6 +858,39 @@
         <v>31</v>
       </c>
       <c r="J10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>107</v>
+      </c>
+      <c r="E11">
+        <v>1E-4</v>
+      </c>
+      <c r="F11">
+        <v>200</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11" si="2">F10</f>
         <v>100</v>
       </c>
     </row>

--- a/Assets/06.Table/PassiveSkill2.xlsx
+++ b/Assets/06.Table/PassiveSkill2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659ADFD3-EC8E-4C15-B175-D1BFBE17B175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1722BAC8-D9FA-42EE-AC93-097DB8AFF5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>용궁 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,9 +240,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -268,7 +280,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -374,7 +386,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -516,7 +528,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -524,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -878,7 +890,7 @@
         <v>1E-4</v>
       </c>
       <c r="F11">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -890,7 +902,40 @@
         <v>29</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11" si="2">F10</f>
+        <f t="shared" ref="J11:J12" si="2">F10</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>114</v>
+      </c>
+      <c r="E12">
+        <v>1E-4</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>

--- a/Assets/06.Table/PassiveSkill2.xlsx
+++ b/Assets/06.Table/PassiveSkill2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1722BAC8-D9FA-42EE-AC93-097DB8AFF5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24BFAF0-98CA-4A7F-A587-83D22DEA9DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,14 @@
   </si>
   <si>
     <t>passive9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥도 훈련</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -902,7 +910,7 @@
         <v>29</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11:J12" si="2">F10</f>
+        <f t="shared" ref="J11:J13" si="2">F10</f>
         <v>100</v>
       </c>
     </row>
@@ -923,7 +931,7 @@
         <v>1E-4</v>
       </c>
       <c r="F12">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
@@ -935,6 +943,39 @@
         <v>36</v>
       </c>
       <c r="J12">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <v>125</v>
+      </c>
+      <c r="E13">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>

--- a/Assets/06.Table/PassiveSkill2.xlsx
+++ b/Assets/06.Table/PassiveSkill2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24BFAF0-98CA-4A7F-A587-83D22DEA9DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D57CFD-FB2A-49A9-B86E-98197F45B2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,14 @@
   </si>
   <si>
     <t>지옥도 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상도 훈련</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -980,6 +988,38 @@
         <v>100</v>
       </c>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>128</v>
+      </c>
+      <c r="E14">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="F14">
+        <v>200</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
